--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.977428904836289</v>
+        <v>9.530679000000001</v>
       </c>
       <c r="H2">
-        <v>8.977428904836289</v>
+        <v>28.592037</v>
       </c>
       <c r="I2">
-        <v>0.1894606691629759</v>
+        <v>0.1897667754944841</v>
       </c>
       <c r="J2">
-        <v>0.1894606691629759</v>
+        <v>0.1975481195422151</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.3579061019392</v>
+        <v>28.93895166666666</v>
       </c>
       <c r="N2">
-        <v>28.3579061019392</v>
+        <v>86.81685499999999</v>
       </c>
       <c r="O2">
-        <v>0.2564720981355903</v>
+        <v>0.2389168411431201</v>
       </c>
       <c r="P2">
-        <v>0.2564720981355903</v>
+        <v>0.2499063428956389</v>
       </c>
       <c r="Q2">
-        <v>254.5810859201823</v>
+        <v>275.807858931515</v>
       </c>
       <c r="R2">
-        <v>254.5810859201823</v>
+        <v>2482.270730383635</v>
       </c>
       <c r="S2">
-        <v>0.04859137533440137</v>
+        <v>0.04533847855505779</v>
       </c>
       <c r="T2">
-        <v>0.04859137533440137</v>
+        <v>0.04936852810070547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.977428904836289</v>
+        <v>9.530679000000001</v>
       </c>
       <c r="H3">
-        <v>8.977428904836289</v>
+        <v>28.592037</v>
       </c>
       <c r="I3">
-        <v>0.1894606691629759</v>
+        <v>0.1897667754944841</v>
       </c>
       <c r="J3">
-        <v>0.1894606691629759</v>
+        <v>0.1975481195422151</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>32.5985523987988</v>
+        <v>35.705903</v>
       </c>
       <c r="N3">
-        <v>32.5985523987988</v>
+        <v>107.117709</v>
       </c>
       <c r="O3">
-        <v>0.294824981077541</v>
+        <v>0.2947840562154431</v>
       </c>
       <c r="P3">
-        <v>0.294824981077541</v>
+        <v>0.3083432925040795</v>
       </c>
       <c r="Q3">
-        <v>292.6511865607967</v>
+        <v>340.301499898137</v>
       </c>
       <c r="R3">
-        <v>292.6511865607967</v>
+        <v>3062.713499083233</v>
       </c>
       <c r="S3">
-        <v>0.05585773820091263</v>
+        <v>0.05594021981518935</v>
       </c>
       <c r="T3">
-        <v>0.05585773820091263</v>
+        <v>0.06091263760763611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.977428904836289</v>
+        <v>9.530679000000001</v>
       </c>
       <c r="H4">
-        <v>8.977428904836289</v>
+        <v>28.592037</v>
       </c>
       <c r="I4">
-        <v>0.1894606691629759</v>
+        <v>0.1897667754944841</v>
       </c>
       <c r="J4">
-        <v>0.1894606691629759</v>
+        <v>0.1975481195422151</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8585060361287</v>
+        <v>19.284198</v>
       </c>
       <c r="N4">
-        <v>13.8585060361287</v>
+        <v>57.852594</v>
       </c>
       <c r="O4">
-        <v>0.1253378901578215</v>
+        <v>0.1592082437265831</v>
       </c>
       <c r="P4">
-        <v>0.1253378901578215</v>
+        <v>0.1665313745074753</v>
       </c>
       <c r="Q4">
-        <v>124.41375266659</v>
+        <v>183.791500910442</v>
       </c>
       <c r="R4">
-        <v>124.41375266659</v>
+        <v>1654.123508193978</v>
       </c>
       <c r="S4">
-        <v>0.02374660054077643</v>
+        <v>0.0302124350441336</v>
       </c>
       <c r="T4">
-        <v>0.02374660054077643</v>
+        <v>0.03289795987873213</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.977428904836289</v>
+        <v>9.530679000000001</v>
       </c>
       <c r="H5">
-        <v>8.977428904836289</v>
+        <v>28.592037</v>
       </c>
       <c r="I5">
-        <v>0.1894606691629759</v>
+        <v>0.1897667754944841</v>
       </c>
       <c r="J5">
-        <v>0.1894606691629759</v>
+        <v>0.1975481195422151</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.9862547367444</v>
+        <v>21.21726266666667</v>
       </c>
       <c r="N5">
-        <v>19.9862547367444</v>
+        <v>63.651788</v>
       </c>
       <c r="O5">
-        <v>0.180757939876763</v>
+        <v>0.1751674156138409</v>
       </c>
       <c r="P5">
-        <v>0.180757939876763</v>
+        <v>0.1832246233504832</v>
       </c>
       <c r="Q5">
-        <v>179.4251809730704</v>
+        <v>202.214919734684</v>
       </c>
       <c r="R5">
-        <v>179.4251809730704</v>
+        <v>1819.934277612156</v>
       </c>
       <c r="S5">
-        <v>0.03424652024557249</v>
+        <v>0.03324095563274072</v>
       </c>
       <c r="T5">
-        <v>0.03424652024557249</v>
+        <v>0.03619567979671859</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.977428904836289</v>
+        <v>9.530679000000001</v>
       </c>
       <c r="H6">
-        <v>8.977428904836289</v>
+        <v>28.592037</v>
       </c>
       <c r="I6">
-        <v>0.1894606691629759</v>
+        <v>0.1897667754944841</v>
       </c>
       <c r="J6">
-        <v>0.1894606691629759</v>
+        <v>0.1975481195422151</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.7679471506722</v>
+        <v>15.9793095</v>
       </c>
       <c r="N6">
-        <v>15.7679471506722</v>
+        <v>31.958619</v>
       </c>
       <c r="O6">
-        <v>0.1426070907522843</v>
+        <v>0.1319234433010128</v>
       </c>
       <c r="P6">
-        <v>0.1426070907522843</v>
+        <v>0.09199436674232302</v>
       </c>
       <c r="Q6">
-        <v>141.5556245203756</v>
+        <v>152.2936694861505</v>
       </c>
       <c r="R6">
-        <v>141.5556245203756</v>
+        <v>913.762016916903</v>
       </c>
       <c r="S6">
-        <v>0.02701843484131303</v>
+        <v>0.02503468644736259</v>
       </c>
       <c r="T6">
-        <v>0.02701843484131303</v>
+        <v>0.01817331415842281</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.028143669024059</v>
+        <v>9.545352000000001</v>
       </c>
       <c r="H7">
-        <v>9.028143669024059</v>
+        <v>28.636056</v>
       </c>
       <c r="I7">
-        <v>0.1905309592495152</v>
+        <v>0.1900589317927741</v>
       </c>
       <c r="J7">
-        <v>0.1905309592495152</v>
+        <v>0.1978522556439601</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.3579061019392</v>
+        <v>28.93895166666666</v>
       </c>
       <c r="N7">
-        <v>28.3579061019392</v>
+        <v>86.81685499999999</v>
       </c>
       <c r="O7">
-        <v>0.2564720981355903</v>
+        <v>0.2389168411431201</v>
       </c>
       <c r="P7">
-        <v>0.2564720981355903</v>
+        <v>0.2499063428956389</v>
       </c>
       <c r="Q7">
-        <v>256.0192504410011</v>
+        <v>276.23248016932</v>
       </c>
       <c r="R7">
-        <v>256.0192504410011</v>
+        <v>2486.09232152388</v>
       </c>
       <c r="S7">
-        <v>0.04886587487850982</v>
+        <v>0.04540827961496531</v>
       </c>
       <c r="T7">
-        <v>0.04886587487850982</v>
+        <v>0.04944453364163511</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.028143669024059</v>
+        <v>9.545352000000001</v>
       </c>
       <c r="H8">
-        <v>9.028143669024059</v>
+        <v>28.636056</v>
       </c>
       <c r="I8">
-        <v>0.1905309592495152</v>
+        <v>0.1900589317927741</v>
       </c>
       <c r="J8">
-        <v>0.1905309592495152</v>
+        <v>0.1978522556439601</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.5985523987988</v>
+        <v>35.705903</v>
       </c>
       <c r="N8">
-        <v>32.5985523987988</v>
+        <v>107.117709</v>
       </c>
       <c r="O8">
-        <v>0.294824981077541</v>
+        <v>0.2947840562154431</v>
       </c>
       <c r="P8">
-        <v>0.294824981077541</v>
+        <v>0.3083432925040795</v>
       </c>
       <c r="Q8">
-        <v>294.3044144585645</v>
+        <v>340.825412612856</v>
       </c>
       <c r="R8">
-        <v>294.3044144585645</v>
+        <v>3067.428713515704</v>
       </c>
       <c r="S8">
-        <v>0.05617328645542405</v>
+        <v>0.05602634283384818</v>
       </c>
       <c r="T8">
-        <v>0.05617328645542405</v>
+        <v>0.06100641593461752</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.028143669024059</v>
+        <v>9.545352000000001</v>
       </c>
       <c r="H9">
-        <v>9.028143669024059</v>
+        <v>28.636056</v>
       </c>
       <c r="I9">
-        <v>0.1905309592495152</v>
+        <v>0.1900589317927741</v>
       </c>
       <c r="J9">
-        <v>0.1905309592495152</v>
+        <v>0.1978522556439601</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.8585060361287</v>
+        <v>19.284198</v>
       </c>
       <c r="N9">
-        <v>13.8585060361287</v>
+        <v>57.852594</v>
       </c>
       <c r="O9">
-        <v>0.1253378901578215</v>
+        <v>0.1592082437265831</v>
       </c>
       <c r="P9">
-        <v>0.1253378901578215</v>
+        <v>0.1665313745074753</v>
       </c>
       <c r="Q9">
-        <v>125.116583532207</v>
+        <v>184.074457947696</v>
       </c>
       <c r="R9">
-        <v>125.116583532207</v>
+        <v>1656.670121529264</v>
       </c>
       <c r="S9">
-        <v>0.0238807484420801</v>
+        <v>0.03025894873527801</v>
       </c>
       <c r="T9">
-        <v>0.0238807484420801</v>
+        <v>0.03294860808179308</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.028143669024059</v>
+        <v>9.545352000000001</v>
       </c>
       <c r="H10">
-        <v>9.028143669024059</v>
+        <v>28.636056</v>
       </c>
       <c r="I10">
-        <v>0.1905309592495152</v>
+        <v>0.1900589317927741</v>
       </c>
       <c r="J10">
-        <v>0.1905309592495152</v>
+        <v>0.1978522556439601</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.9862547367444</v>
+        <v>21.21726266666667</v>
       </c>
       <c r="N10">
-        <v>19.9862547367444</v>
+        <v>63.651788</v>
       </c>
       <c r="O10">
-        <v>0.180757939876763</v>
+        <v>0.1751674156138409</v>
       </c>
       <c r="P10">
-        <v>0.180757939876763</v>
+        <v>0.1832246233504832</v>
       </c>
       <c r="Q10">
-        <v>180.4387791690411</v>
+        <v>202.526240629792</v>
       </c>
       <c r="R10">
-        <v>180.4387791690411</v>
+        <v>1822.736165668128</v>
       </c>
       <c r="S10">
-        <v>0.03443998367668585</v>
+        <v>0.0332921318964675</v>
       </c>
       <c r="T10">
-        <v>0.03443998367668585</v>
+        <v>0.03625140501940811</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.028143669024059</v>
+        <v>9.545352000000001</v>
       </c>
       <c r="H11">
-        <v>9.028143669024059</v>
+        <v>28.636056</v>
       </c>
       <c r="I11">
-        <v>0.1905309592495152</v>
+        <v>0.1900589317927741</v>
       </c>
       <c r="J11">
-        <v>0.1905309592495152</v>
+        <v>0.1978522556439601</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.7679471506722</v>
+        <v>15.9793095</v>
       </c>
       <c r="N11">
-        <v>15.7679471506722</v>
+        <v>31.958619</v>
       </c>
       <c r="O11">
-        <v>0.1426070907522843</v>
+        <v>0.1319234433010128</v>
       </c>
       <c r="P11">
-        <v>0.1426070907522843</v>
+        <v>0.09199436674232302</v>
       </c>
       <c r="Q11">
-        <v>142.3552922418472</v>
+        <v>152.528133894444</v>
       </c>
       <c r="R11">
-        <v>142.3552922418472</v>
+        <v>915.1688033666641</v>
       </c>
       <c r="S11">
-        <v>0.02717106579681541</v>
+        <v>0.0250732287122151</v>
       </c>
       <c r="T11">
-        <v>0.02717106579681541</v>
+        <v>0.01820129296650632</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.5008859626065</v>
+        <v>13.79341066666667</v>
       </c>
       <c r="H12">
-        <v>12.5008859626065</v>
+        <v>41.380232</v>
       </c>
       <c r="I12">
-        <v>0.2638201031399502</v>
+        <v>0.2746426634749271</v>
       </c>
       <c r="J12">
-        <v>0.2638201031399502</v>
+        <v>0.2859043242641507</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.3579061019392</v>
+        <v>28.93895166666666</v>
       </c>
       <c r="N12">
-        <v>28.3579061019392</v>
+        <v>86.81685499999999</v>
       </c>
       <c r="O12">
-        <v>0.2564720981355903</v>
+        <v>0.2389168411431201</v>
       </c>
       <c r="P12">
-        <v>0.2564720981355903</v>
+        <v>0.2499063428956389</v>
       </c>
       <c r="Q12">
-        <v>354.498950318645</v>
+        <v>399.1668446011511</v>
       </c>
       <c r="R12">
-        <v>354.498950318645</v>
+        <v>3592.501601410359</v>
       </c>
       <c r="S12">
-        <v>0.06766249538265086</v>
+        <v>0.06561675760056256</v>
       </c>
       <c r="T12">
-        <v>0.06766249538265086</v>
+        <v>0.07144930409490279</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.5008859626065</v>
+        <v>13.79341066666667</v>
       </c>
       <c r="H13">
-        <v>12.5008859626065</v>
+        <v>41.380232</v>
       </c>
       <c r="I13">
-        <v>0.2638201031399502</v>
+        <v>0.2746426634749271</v>
       </c>
       <c r="J13">
-        <v>0.2638201031399502</v>
+        <v>0.2859043242641507</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>32.5985523987988</v>
+        <v>35.705903</v>
       </c>
       <c r="N13">
-        <v>32.5985523987988</v>
+        <v>107.117709</v>
       </c>
       <c r="O13">
-        <v>0.294824981077541</v>
+        <v>0.2947840562154431</v>
       </c>
       <c r="P13">
-        <v>0.294824981077541</v>
+        <v>0.3083432925040795</v>
       </c>
       <c r="Q13">
-        <v>407.5107860834364</v>
+        <v>492.5061833031653</v>
       </c>
       <c r="R13">
-        <v>407.5107860834364</v>
+        <v>4432.555649728488</v>
       </c>
       <c r="S13">
-        <v>0.07778075691611072</v>
+        <v>0.08096027834895192</v>
       </c>
       <c r="T13">
-        <v>0.07778075691611072</v>
+        <v>0.08815668068476223</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.5008859626065</v>
+        <v>13.79341066666667</v>
       </c>
       <c r="H14">
-        <v>12.5008859626065</v>
+        <v>41.380232</v>
       </c>
       <c r="I14">
-        <v>0.2638201031399502</v>
+        <v>0.2746426634749271</v>
       </c>
       <c r="J14">
-        <v>0.2638201031399502</v>
+        <v>0.2859043242641507</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.8585060361287</v>
+        <v>19.284198</v>
       </c>
       <c r="N14">
-        <v>13.8585060361287</v>
+        <v>57.852594</v>
       </c>
       <c r="O14">
-        <v>0.1253378901578215</v>
+        <v>0.1592082437265831</v>
       </c>
       <c r="P14">
-        <v>0.1253378901578215</v>
+        <v>0.1665313745074753</v>
       </c>
       <c r="Q14">
-        <v>173.2436035697387</v>
+        <v>265.994862391312</v>
       </c>
       <c r="R14">
-        <v>173.2436035697387</v>
+        <v>2393.953761521808</v>
       </c>
       <c r="S14">
-        <v>0.03306665510878021</v>
+        <v>0.04372537610423414</v>
       </c>
       <c r="T14">
-        <v>0.03306665510878021</v>
+        <v>0.04761204009733995</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.5008859626065</v>
+        <v>13.79341066666667</v>
       </c>
       <c r="H15">
-        <v>12.5008859626065</v>
+        <v>41.380232</v>
       </c>
       <c r="I15">
-        <v>0.2638201031399502</v>
+        <v>0.2746426634749271</v>
       </c>
       <c r="J15">
-        <v>0.2638201031399502</v>
+        <v>0.2859043242641507</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.9862547367444</v>
+        <v>21.21726266666667</v>
       </c>
       <c r="N15">
-        <v>19.9862547367444</v>
+        <v>63.651788</v>
       </c>
       <c r="O15">
-        <v>0.180757939876763</v>
+        <v>0.1751674156138409</v>
       </c>
       <c r="P15">
-        <v>0.180757939876763</v>
+        <v>0.1832246233504832</v>
       </c>
       <c r="Q15">
-        <v>249.8458912836457</v>
+        <v>292.6584171838684</v>
       </c>
       <c r="R15">
-        <v>249.8458912836457</v>
+        <v>2633.925754654816</v>
       </c>
       <c r="S15">
-        <v>0.04768757834165252</v>
+        <v>0.0481084455782048</v>
       </c>
       <c r="T15">
-        <v>0.04768757834165252</v>
+        <v>0.05238471212757342</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.5008859626065</v>
+        <v>13.79341066666667</v>
       </c>
       <c r="H16">
-        <v>12.5008859626065</v>
+        <v>41.380232</v>
       </c>
       <c r="I16">
-        <v>0.2638201031399502</v>
+        <v>0.2746426634749271</v>
       </c>
       <c r="J16">
-        <v>0.2638201031399502</v>
+        <v>0.2859043242641507</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.7679471506722</v>
+        <v>15.9793095</v>
       </c>
       <c r="N16">
-        <v>15.7679471506722</v>
+        <v>31.958619</v>
       </c>
       <c r="O16">
-        <v>0.1426070907522843</v>
+        <v>0.1319234433010128</v>
       </c>
       <c r="P16">
-        <v>0.1426070907522843</v>
+        <v>0.09199436674232302</v>
       </c>
       <c r="Q16">
-        <v>197.1133091949592</v>
+        <v>220.409178103268</v>
       </c>
       <c r="R16">
-        <v>197.1133091949592</v>
+        <v>1322.455068619608</v>
       </c>
       <c r="S16">
-        <v>0.03762261739075589</v>
+        <v>0.03623180584297368</v>
       </c>
       <c r="T16">
-        <v>0.03762261739075589</v>
+        <v>0.02630158725957232</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.2010223089792</v>
+        <v>11.418868</v>
       </c>
       <c r="H17">
-        <v>11.2010223089792</v>
+        <v>34.256604</v>
       </c>
       <c r="I17">
-        <v>0.2363876344178434</v>
+        <v>0.2273627891734836</v>
       </c>
       <c r="J17">
-        <v>0.2363876344178434</v>
+        <v>0.2366857493260212</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.3579061019392</v>
+        <v>28.93895166666666</v>
       </c>
       <c r="N17">
-        <v>28.3579061019392</v>
+        <v>86.81685499999999</v>
       </c>
       <c r="O17">
-        <v>0.2564720981355903</v>
+        <v>0.2389168411431201</v>
       </c>
       <c r="P17">
-        <v>0.2564720981355903</v>
+        <v>0.2499063428956389</v>
       </c>
       <c r="Q17">
-        <v>317.6375388837583</v>
+        <v>330.4500691400466</v>
       </c>
       <c r="R17">
-        <v>317.6375388837583</v>
+        <v>2974.050622260419</v>
       </c>
       <c r="S17">
-        <v>0.06062683257245317</v>
+        <v>0.0543207993828179</v>
       </c>
       <c r="T17">
-        <v>0.06062683257245317</v>
+        <v>0.05914927002957988</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.2010223089792</v>
+        <v>11.418868</v>
       </c>
       <c r="H18">
-        <v>11.2010223089792</v>
+        <v>34.256604</v>
       </c>
       <c r="I18">
-        <v>0.2363876344178434</v>
+        <v>0.2273627891734836</v>
       </c>
       <c r="J18">
-        <v>0.2363876344178434</v>
+        <v>0.2366857493260212</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>32.5985523987988</v>
+        <v>35.705903</v>
       </c>
       <c r="N18">
-        <v>32.5985523987988</v>
+        <v>107.117709</v>
       </c>
       <c r="O18">
-        <v>0.294824981077541</v>
+        <v>0.2947840562154431</v>
       </c>
       <c r="P18">
-        <v>0.294824981077541</v>
+        <v>0.3083432925040795</v>
       </c>
       <c r="Q18">
-        <v>365.1371126593728</v>
+        <v>407.7209931778039</v>
       </c>
       <c r="R18">
-        <v>365.1371126593728</v>
+        <v>3669.488938600235</v>
       </c>
       <c r="S18">
-        <v>0.06969297984420535</v>
+        <v>0.06702292522501613</v>
       </c>
       <c r="T18">
-        <v>0.06969297984420535</v>
+        <v>0.07298046323598061</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.2010223089792</v>
+        <v>11.418868</v>
       </c>
       <c r="H19">
-        <v>11.2010223089792</v>
+        <v>34.256604</v>
       </c>
       <c r="I19">
-        <v>0.2363876344178434</v>
+        <v>0.2273627891734836</v>
       </c>
       <c r="J19">
-        <v>0.2363876344178434</v>
+        <v>0.2366857493260212</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.8585060361287</v>
+        <v>19.284198</v>
       </c>
       <c r="N19">
-        <v>13.8585060361287</v>
+        <v>57.852594</v>
       </c>
       <c r="O19">
-        <v>0.1253378901578215</v>
+        <v>0.1592082437265831</v>
       </c>
       <c r="P19">
-        <v>0.1253378901578215</v>
+        <v>0.1665313745074753</v>
       </c>
       <c r="Q19">
-        <v>155.2294352798005</v>
+        <v>220.203711447864</v>
       </c>
       <c r="R19">
-        <v>155.2294352798005</v>
+        <v>1981.833403030776</v>
       </c>
       <c r="S19">
-        <v>0.02962832735733091</v>
+        <v>0.03619803035308771</v>
       </c>
       <c r="T19">
-        <v>0.02962832735733091</v>
+        <v>0.03941560316159406</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.2010223089792</v>
+        <v>11.418868</v>
       </c>
       <c r="H20">
-        <v>11.2010223089792</v>
+        <v>34.256604</v>
       </c>
       <c r="I20">
-        <v>0.2363876344178434</v>
+        <v>0.2273627891734836</v>
       </c>
       <c r="J20">
-        <v>0.2363876344178434</v>
+        <v>0.2366857493260212</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.9862547367444</v>
+        <v>21.21726266666667</v>
       </c>
       <c r="N20">
-        <v>19.9862547367444</v>
+        <v>63.651788</v>
       </c>
       <c r="O20">
-        <v>0.180757939876763</v>
+        <v>0.1751674156138409</v>
       </c>
       <c r="P20">
-        <v>0.180757939876763</v>
+        <v>0.1832246233504832</v>
       </c>
       <c r="Q20">
-        <v>223.8664851792152</v>
+        <v>242.2771217119946</v>
       </c>
       <c r="R20">
-        <v>223.8664851792152</v>
+        <v>2180.494095407952</v>
       </c>
       <c r="S20">
-        <v>0.04272894180971076</v>
+        <v>0.03982655218627369</v>
       </c>
       <c r="T20">
-        <v>0.04272894180971076</v>
+        <v>0.04336665727268711</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.2010223089792</v>
+        <v>11.418868</v>
       </c>
       <c r="H21">
-        <v>11.2010223089792</v>
+        <v>34.256604</v>
       </c>
       <c r="I21">
-        <v>0.2363876344178434</v>
+        <v>0.2273627891734836</v>
       </c>
       <c r="J21">
-        <v>0.2363876344178434</v>
+        <v>0.2366857493260212</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.7679471506722</v>
+        <v>15.9793095</v>
       </c>
       <c r="N21">
-        <v>15.7679471506722</v>
+        <v>31.958619</v>
       </c>
       <c r="O21">
-        <v>0.1426070907522843</v>
+        <v>0.1319234433010128</v>
       </c>
       <c r="P21">
-        <v>0.1426070907522843</v>
+        <v>0.09199436674232302</v>
       </c>
       <c r="Q21">
-        <v>176.6171278014843</v>
+        <v>182.465625911646</v>
       </c>
       <c r="R21">
-        <v>176.6171278014843</v>
+        <v>1094.793755469876</v>
       </c>
       <c r="S21">
-        <v>0.0337105528341432</v>
+        <v>0.02999448202628819</v>
       </c>
       <c r="T21">
-        <v>0.0337105528341432</v>
+        <v>0.02177375562617953</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.67664877099596</v>
+        <v>5.9348075</v>
       </c>
       <c r="H22">
-        <v>5.67664877099596</v>
+        <v>11.869615</v>
       </c>
       <c r="I22">
-        <v>0.1198006340297152</v>
+        <v>0.1181688400643312</v>
       </c>
       <c r="J22">
-        <v>0.1198006340297152</v>
+        <v>0.08200955122365257</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>28.3579061019392</v>
+        <v>28.93895166666666</v>
       </c>
       <c r="N22">
-        <v>28.3579061019392</v>
+        <v>86.81685499999999</v>
       </c>
       <c r="O22">
-        <v>0.2564720981355903</v>
+        <v>0.2389168411431201</v>
       </c>
       <c r="P22">
-        <v>0.2564720981355903</v>
+        <v>0.2499063428956389</v>
       </c>
       <c r="Q22">
-        <v>160.977872821592</v>
+        <v>171.7471073934708</v>
       </c>
       <c r="R22">
-        <v>160.977872821592</v>
+        <v>1030.482644360825</v>
       </c>
       <c r="S22">
-        <v>0.03072551996757506</v>
+        <v>0.02823252598971659</v>
       </c>
       <c r="T22">
-        <v>0.03072551996757506</v>
+        <v>0.02049470702881558</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.67664877099596</v>
+        <v>5.9348075</v>
       </c>
       <c r="H23">
-        <v>5.67664877099596</v>
+        <v>11.869615</v>
       </c>
       <c r="I23">
-        <v>0.1198006340297152</v>
+        <v>0.1181688400643312</v>
       </c>
       <c r="J23">
-        <v>0.1198006340297152</v>
+        <v>0.08200955122365257</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>32.5985523987988</v>
+        <v>35.705903</v>
       </c>
       <c r="N23">
-        <v>32.5985523987988</v>
+        <v>107.117709</v>
       </c>
       <c r="O23">
-        <v>0.294824981077541</v>
+        <v>0.2947840562154431</v>
       </c>
       <c r="P23">
-        <v>0.294824981077541</v>
+        <v>0.3083432925040795</v>
       </c>
       <c r="Q23">
-        <v>185.0505324108886</v>
+        <v>211.9076609186725</v>
       </c>
       <c r="R23">
-        <v>185.0505324108886</v>
+        <v>1271.445965512035</v>
       </c>
       <c r="S23">
-        <v>0.0353202196608882</v>
+        <v>0.03483428999243751</v>
       </c>
       <c r="T23">
-        <v>0.0353202196608882</v>
+        <v>0.025287095041083</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.67664877099596</v>
+        <v>5.9348075</v>
       </c>
       <c r="H24">
-        <v>5.67664877099596</v>
+        <v>11.869615</v>
       </c>
       <c r="I24">
-        <v>0.1198006340297152</v>
+        <v>0.1181688400643312</v>
       </c>
       <c r="J24">
-        <v>0.1198006340297152</v>
+        <v>0.08200955122365257</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>13.8585060361287</v>
+        <v>19.284198</v>
       </c>
       <c r="N24">
-        <v>13.8585060361287</v>
+        <v>57.852594</v>
       </c>
       <c r="O24">
-        <v>0.1253378901578215</v>
+        <v>0.1592082437265831</v>
       </c>
       <c r="P24">
-        <v>0.1253378901578215</v>
+        <v>0.1665313745074753</v>
       </c>
       <c r="Q24">
-        <v>78.66987125783008</v>
+        <v>114.448002921885</v>
       </c>
       <c r="R24">
-        <v>78.66987125783008</v>
+        <v>686.6880175313099</v>
       </c>
       <c r="S24">
-        <v>0.01501555870885381</v>
+        <v>0.01881345348984966</v>
       </c>
       <c r="T24">
-        <v>0.01501555870885381</v>
+        <v>0.01365716328801607</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.67664877099596</v>
+        <v>5.9348075</v>
       </c>
       <c r="H25">
-        <v>5.67664877099596</v>
+        <v>11.869615</v>
       </c>
       <c r="I25">
-        <v>0.1198006340297152</v>
+        <v>0.1181688400643312</v>
       </c>
       <c r="J25">
-        <v>0.1198006340297152</v>
+        <v>0.08200955122365257</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.9862547367444</v>
+        <v>21.21726266666667</v>
       </c>
       <c r="N25">
-        <v>19.9862547367444</v>
+        <v>63.651788</v>
       </c>
       <c r="O25">
-        <v>0.180757939876763</v>
+        <v>0.1751674156138409</v>
       </c>
       <c r="P25">
-        <v>0.180757939876763</v>
+        <v>0.1832246233504832</v>
       </c>
       <c r="Q25">
-        <v>113.4549483881523</v>
+        <v>125.9203696036033</v>
       </c>
       <c r="R25">
-        <v>113.4549483881523</v>
+        <v>755.5222176216199</v>
       </c>
       <c r="S25">
-        <v>0.02165491580314135</v>
+        <v>0.0206993303201542</v>
       </c>
       <c r="T25">
-        <v>0.02165491580314135</v>
+        <v>0.0150261691340959</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.67664877099596</v>
+        <v>5.9348075</v>
       </c>
       <c r="H26">
-        <v>5.67664877099596</v>
+        <v>11.869615</v>
       </c>
       <c r="I26">
-        <v>0.1198006340297152</v>
+        <v>0.1181688400643312</v>
       </c>
       <c r="J26">
-        <v>0.1198006340297152</v>
+        <v>0.08200955122365257</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.7679471506722</v>
+        <v>15.9793095</v>
       </c>
       <c r="N26">
-        <v>15.7679471506722</v>
+        <v>31.958619</v>
       </c>
       <c r="O26">
-        <v>0.1426070907522843</v>
+        <v>0.1319234433010128</v>
       </c>
       <c r="P26">
-        <v>0.1426070907522843</v>
+        <v>0.09199436674232302</v>
       </c>
       <c r="Q26">
-        <v>89.50909781399258</v>
+        <v>94.83412586542124</v>
       </c>
       <c r="R26">
-        <v>89.50909781399258</v>
+        <v>379.336503461685</v>
       </c>
       <c r="S26">
-        <v>0.0170844198892568</v>
+        <v>0.01558924027217325</v>
       </c>
       <c r="T26">
-        <v>0.0170844198892568</v>
+        <v>0.00754441673164202</v>
       </c>
     </row>
   </sheetData>
